--- a/biology/Zoologie/Jamides/Jamides.xlsx
+++ b/biology/Zoologie/Jamides/Jamides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jamides est un genre de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae. Ses espèces sont originaires des écozones indomalaise et australasienne.
 </t>
@@ -511,9 +523,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En anglais, les espèces de ce genre sont appelées ceruleans[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anglais, les espèces de ce genre sont appelées ceruleans.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Jamides a été décrit par l'entomologiste allemand Jakob Hübner en 1819[2]. Son espèce type est Papilio bochus Stoll, [1782][1].
-Il est actuellement classé dans la famille des Lycaenidae, la sous-famille des Polyommatinae et la tribu des Polyommatini[3]. 
-Un nombre important de espèces de Jamides actuelles ont été classées par le passé dans le genre Lampides[1], lequel est désormais réduit à une seule espèce.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Jamides a été décrit par l'entomologiste allemand Jakob Hübner en 1819. Son espèce type est Papilio bochus Stoll, .
+Il est actuellement classé dans la famille des Lycaenidae, la sous-famille des Polyommatinae et la tribu des Polyommatini. 
+Un nombre important de espèces de Jamides actuelles ont été classées par le passé dans le genre Lampides, lequel est désormais réduit à une seule espèce.
 </t>
         </is>
       </c>
@@ -575,40 +591,42 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après FUNET Tree of Life  (11 avril 2019)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après FUNET Tree of Life  (11 avril 2019) :
 Jamides abdul (Distant, 1886)
 Jamides aetherialis (Butler, 1884)
 Jamides alecto (Felder, 1860), Azuré de la cardamome
-Jamides aleuas (C. &amp; R. Felder, [1865])
+Jamides aleuas (C. &amp; R. Felder, )
 Jamides allectus (Grose-Smith, 1894)
 Jamides alsietus (Fruhstorfer, 1916)
 Jamides amarauge Druce, 1891
 Jamides anops (Doherty, 1891)
-Jamides aratus (Stoll, [1781])
+Jamides aratus (Stoll, )
 Jamides areas (Druce, 1891)
-Jamides aritai Hayashi, [1977]
+Jamides aritai Hayashi, 
 Jamides aruensis (Pagenstecher, 1884)
 Jamides biru (Ribbe, 1926)
-Jamides bochus (Stoll, [1782])
+Jamides bochus (Stoll, )
 Jamides butleri (Rothschild, 1915)
 Jamides caerulea (Druce, 1873)
 Jamides callistus (Röber, 1886)
 Jamides candrena (Herrich-Schäffer, 1869)
-Jamides carissima (Butler, [1876])
+Jamides carissima (Butler, )
 Jamides celebica (Eliot, 1969)
-Jamides celeno (Cramer, [1775])
+Jamides celeno (Cramer, )
 Jamides cephion Druce, 1891
-Jamides cleodus (C. &amp; R. Felder, [1865])
+Jamides cleodus (C. &amp; R. Felder, )
 Jamides coritus (Guérin-Méneville, 1829)
 Jamides coruscans (Moore, 1877)
 Jamides cunilda (Snellen, 1896)
 Jamides cyta (Boisduval, 1832)
 Jamides elioti Hirowatari &amp; Cassidy, 1994
-Jamides elpis (Godart, [1824])
+Jamides elpis (Godart, )
 Jamides epilectus (Grose-Smith, 1897)
-Jamides euchylas (Hübner, [1819])
+Jamides euchylas (Hübner, )
 Jamides ferrari Evans, 1932
 Jamides festivus (Röber, 1886)
 Jamides fractilinea Tite, 1960
@@ -638,7 +656,7 @@
 Jamides seminiger Grose-Smith, 1895
 Jamides snelleni (Röber, 1886)
 Jamides soemias Druce, 1891
-Jamides suidas (C. &amp; R. Felder, [1865])
+Jamides suidas (C. &amp; R. Felder, )
 Jamides talinga (Kheil, 1884)
 Jamides titei Tennent &amp; Rawlins, 2012
 Jamides tsukadai Takanami, 1994
